--- a/xlsx/FR/tax_FR.xlsx
+++ b/xlsx/FR/tax_FR.xlsx
@@ -12,30 +12,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">A reduction in corporate income taxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equal cash transfers to all households</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A reduction in the public deficit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax rebates for the most affected firms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash transfers to HH with no alternative to fossil fuels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash transfers to the poorest households</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subsidizing low-carbon technologies, including renewables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A reduction in personal income taxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funding environmental infrastructures (e.g. public transport)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly oppose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat oppose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indifferent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly support</t>
   </si>
 </sst>
 </file>
@@ -380,61 +401,183 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.130852380078202</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.0959727495988903</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.0377193815062497</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0683749507716376</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0997214852793262</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.102202247331332</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0296849514606555</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0572679586056605</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0326982273358111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.164681362599472</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.198397541277025</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.0871705414837142</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.123785698866106</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.10449473489027</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.112665498671003</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0687678990768175</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0798841397675026</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0496408160535997</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.349715726819399</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.26543977728427</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.375324969296202</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.274697325852688</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.244948773884353</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.234156754184483</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.337713186712839</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.235784460463189</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.275196961829163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.269742298335028</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.308740612736668</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.347857712397362</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.419062876410199</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.410655234358277</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.370158308196322</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.389042164348537</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.450904121881212</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.407942601731287</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.085008232167899</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.131449319103146</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.151927395316472</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.114079148099369</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.140179771587775</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.180817191616861</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.174791798401151</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.176159319282435</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.234521393050139</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/tax_FR.xlsx
+++ b/xlsx/FR/tax_FR.xlsx
@@ -425,31 +425,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.130852380078202</v>
+        <v>0.123250729722362</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0959727495988903</v>
+        <v>0.106235623539144</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0377193815062497</v>
+        <v>0.0331707204999078</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0683749507716376</v>
+        <v>0.061015779442988</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0997214852793262</v>
+        <v>0.0930716144405537</v>
       </c>
       <c r="G2" t="n">
-        <v>0.102202247331332</v>
+        <v>0.0984602476289072</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0296849514606555</v>
+        <v>0.0251556703911955</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0572679586056605</v>
+        <v>0.054971218457428</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0326982273358111</v>
+        <v>0.0207389485486962</v>
       </c>
     </row>
     <row r="3">
@@ -457,31 +457,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>0.164681362599472</v>
+        <v>0.171723596605467</v>
       </c>
       <c r="C3" t="n">
-        <v>0.198397541277025</v>
+        <v>0.194959151528738</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0871705414837142</v>
+        <v>0.0851543967543251</v>
       </c>
       <c r="E3" t="n">
-        <v>0.123785698866106</v>
+        <v>0.132582389258445</v>
       </c>
       <c r="F3" t="n">
-        <v>0.10449473489027</v>
+        <v>0.100185644858585</v>
       </c>
       <c r="G3" t="n">
-        <v>0.112665498671003</v>
+        <v>0.121362953574213</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0687678990768175</v>
+        <v>0.078592526534299</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0798841397675026</v>
+        <v>0.0816500852563687</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0496408160535997</v>
+        <v>0.0589396191731312</v>
       </c>
     </row>
     <row r="4">
@@ -489,31 +489,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>0.349715726819399</v>
+        <v>0.336613801317173</v>
       </c>
       <c r="C4" t="n">
-        <v>0.26543977728427</v>
+        <v>0.250098163362495</v>
       </c>
       <c r="D4" t="n">
-        <v>0.375324969296202</v>
+        <v>0.363336110580166</v>
       </c>
       <c r="E4" t="n">
-        <v>0.274697325852688</v>
+        <v>0.273507372547573</v>
       </c>
       <c r="F4" t="n">
-        <v>0.244948773884353</v>
+        <v>0.247089771254251</v>
       </c>
       <c r="G4" t="n">
-        <v>0.234156754184483</v>
+        <v>0.207717853797763</v>
       </c>
       <c r="H4" t="n">
-        <v>0.337713186712839</v>
+        <v>0.314086854483638</v>
       </c>
       <c r="I4" t="n">
-        <v>0.235784460463189</v>
+        <v>0.221545073657504</v>
       </c>
       <c r="J4" t="n">
-        <v>0.275196961829163</v>
+        <v>0.26778160515546</v>
       </c>
     </row>
     <row r="5">
@@ -521,31 +521,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>0.269742298335028</v>
+        <v>0.276706769364806</v>
       </c>
       <c r="C5" t="n">
-        <v>0.308740612736668</v>
+        <v>0.320096005487835</v>
       </c>
       <c r="D5" t="n">
-        <v>0.347857712397362</v>
+        <v>0.358690857769671</v>
       </c>
       <c r="E5" t="n">
-        <v>0.419062876410199</v>
+        <v>0.40873376432233</v>
       </c>
       <c r="F5" t="n">
-        <v>0.410655234358277</v>
+        <v>0.418386864143577</v>
       </c>
       <c r="G5" t="n">
-        <v>0.370158308196322</v>
+        <v>0.375505160777205</v>
       </c>
       <c r="H5" t="n">
-        <v>0.389042164348537</v>
+        <v>0.405674861304274</v>
       </c>
       <c r="I5" t="n">
-        <v>0.450904121881212</v>
+        <v>0.455016613461617</v>
       </c>
       <c r="J5" t="n">
-        <v>0.407942601731287</v>
+        <v>0.410309413960813</v>
       </c>
     </row>
     <row r="6">
@@ -553,31 +553,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>0.085008232167899</v>
+        <v>0.0917051029901918</v>
       </c>
       <c r="C6" t="n">
-        <v>0.131449319103146</v>
+        <v>0.128611056081788</v>
       </c>
       <c r="D6" t="n">
-        <v>0.151927395316472</v>
+        <v>0.159647914395931</v>
       </c>
       <c r="E6" t="n">
-        <v>0.114079148099369</v>
+        <v>0.124160694428663</v>
       </c>
       <c r="F6" t="n">
-        <v>0.140179771587775</v>
+        <v>0.141266105303033</v>
       </c>
       <c r="G6" t="n">
-        <v>0.180817191616861</v>
+        <v>0.196953784221912</v>
       </c>
       <c r="H6" t="n">
-        <v>0.174791798401151</v>
+        <v>0.176490087286593</v>
       </c>
       <c r="I6" t="n">
-        <v>0.176159319282435</v>
+        <v>0.186817009167082</v>
       </c>
       <c r="J6" t="n">
-        <v>0.234521393050139</v>
+        <v>0.2422304131619</v>
       </c>
     </row>
   </sheetData>
